--- a/Code/Results/Cases/Case_4_160/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_160/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.06617020303369</v>
+        <v>23.35199135438161</v>
       </c>
       <c r="C2">
-        <v>14.54956329875369</v>
+        <v>9.040056169400552</v>
       </c>
       <c r="D2">
-        <v>8.485425318068501</v>
+        <v>12.972983226917</v>
       </c>
       <c r="E2">
-        <v>7.357742189517006</v>
+        <v>12.68481465606163</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>50.34385235907465</v>
+        <v>60.65750051069526</v>
       </c>
       <c r="H2">
-        <v>15.06187374135329</v>
+        <v>22.10401503027334</v>
       </c>
       <c r="I2">
-        <v>23.33698889285035</v>
+        <v>33.79039134410352</v>
       </c>
       <c r="J2">
-        <v>4.809206755164315</v>
+        <v>7.84161638198797</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.158445660638593</v>
+        <v>13.8230676791848</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.55465040191474</v>
+        <v>23.00377652425601</v>
       </c>
       <c r="C3">
-        <v>13.53962212383056</v>
+        <v>8.630193828868856</v>
       </c>
       <c r="D3">
-        <v>8.334322358603609</v>
+        <v>12.98364283608631</v>
       </c>
       <c r="E3">
-        <v>7.398631081540016</v>
+        <v>12.71412108419088</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>48.79874410893892</v>
+        <v>60.57672846018547</v>
       </c>
       <c r="H3">
-        <v>14.89813654897564</v>
+        <v>22.14630071114788</v>
       </c>
       <c r="I3">
-        <v>23.19672131518358</v>
+        <v>33.87820201712407</v>
       </c>
       <c r="J3">
-        <v>4.807603841409413</v>
+        <v>7.842492910190352</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.923383194026377</v>
+        <v>13.81981706949494</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.5875624456797</v>
+        <v>22.79273218477701</v>
       </c>
       <c r="C4">
-        <v>12.88669391244859</v>
+        <v>8.370456018728326</v>
       </c>
       <c r="D4">
-        <v>8.24616699480878</v>
+        <v>12.99247626283807</v>
       </c>
       <c r="E4">
-        <v>7.426532088424754</v>
+        <v>12.73342881805583</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>47.88935777357536</v>
+        <v>60.54551340334883</v>
       </c>
       <c r="H4">
-        <v>14.8112211547981</v>
+        <v>22.17695490009561</v>
       </c>
       <c r="I4">
-        <v>23.13473456244012</v>
+        <v>33.93970114945091</v>
       </c>
       <c r="J4">
-        <v>4.806876939362985</v>
+        <v>7.843117112492356</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.781944259812578</v>
+        <v>13.82019276451908</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.18382770762674</v>
+        <v>22.70753268043791</v>
       </c>
       <c r="C5">
-        <v>12.61225635145839</v>
+        <v>8.262741364766462</v>
       </c>
       <c r="D5">
-        <v>8.2114001814291</v>
+        <v>12.99665105588811</v>
       </c>
       <c r="E5">
-        <v>7.438589077436891</v>
+        <v>12.74162761169938</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>47.52872497807104</v>
+        <v>60.53740803003073</v>
       </c>
       <c r="H5">
-        <v>14.77909289120048</v>
+        <v>22.1906222073212</v>
       </c>
       <c r="I5">
-        <v>23.1152402064096</v>
+        <v>33.96666113146141</v>
       </c>
       <c r="J5">
-        <v>4.806642616043123</v>
+        <v>7.843393142134711</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.725073088214772</v>
+        <v>13.82094313223591</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.11621214122469</v>
+        <v>22.6934370066258</v>
       </c>
       <c r="C6">
-        <v>12.56617791151015</v>
+        <v>8.244747709947466</v>
       </c>
       <c r="D6">
-        <v>8.205696900693585</v>
+        <v>12.99737899889913</v>
       </c>
       <c r="E6">
-        <v>7.440632191509383</v>
+        <v>12.74300900411304</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>47.46944478307186</v>
+        <v>60.53634059107619</v>
       </c>
       <c r="H6">
-        <v>14.77395278227279</v>
+        <v>22.19296252694115</v>
       </c>
       <c r="I6">
-        <v>23.1123425659646</v>
+        <v>33.97125223991668</v>
       </c>
       <c r="J6">
-        <v>4.806607368156909</v>
+        <v>7.843440286001155</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.715677157447949</v>
+        <v>13.82110382560138</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.58215628522656</v>
+        <v>22.7915797614176</v>
       </c>
       <c r="C7">
-        <v>12.88302675958451</v>
+        <v>8.36901067914356</v>
       </c>
       <c r="D7">
-        <v>8.245693439380904</v>
+        <v>12.99253023755553</v>
       </c>
       <c r="E7">
-        <v>7.426691931114826</v>
+        <v>12.73353805011742</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>47.88445379000847</v>
+        <v>60.54538541783936</v>
       </c>
       <c r="H7">
-        <v>14.81077471791553</v>
+        <v>22.17713446831976</v>
       </c>
       <c r="I7">
-        <v>23.13444870978907</v>
+        <v>33.94005706512272</v>
       </c>
       <c r="J7">
-        <v>4.80687353209835</v>
+        <v>7.843120747368597</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.781174118437709</v>
+        <v>13.82020046491018</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.55317475236734</v>
+        <v>23.23141914524869</v>
       </c>
       <c r="C8">
-        <v>14.20807840733472</v>
+        <v>8.90050358360458</v>
       </c>
       <c r="D8">
-        <v>8.432362678324939</v>
+        <v>12.97618354930515</v>
       </c>
       <c r="E8">
-        <v>7.371250737608204</v>
+        <v>12.69464717430126</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>49.80297668445031</v>
+        <v>60.62583307430958</v>
       </c>
       <c r="H8">
-        <v>15.00251006950836</v>
+        <v>22.11761925150011</v>
       </c>
       <c r="I8">
-        <v>23.28343134667895</v>
+        <v>33.81908974029925</v>
       </c>
       <c r="J8">
-        <v>4.808598895582509</v>
+        <v>7.841900777523149</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.076819012567523</v>
+        <v>13.82145526620912</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.10609567043367</v>
+        <v>24.1110662274246</v>
       </c>
       <c r="C9">
-        <v>16.55147492512016</v>
+        <v>9.872570689475427</v>
       </c>
       <c r="D9">
-        <v>8.835351886810967</v>
+        <v>12.96229506420098</v>
       </c>
       <c r="E9">
-        <v>7.28547926343333</v>
+        <v>12.62878385815318</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.87509347493054</v>
+        <v>60.92951281340652</v>
       </c>
       <c r="H9">
-        <v>15.49252841923909</v>
+        <v>22.03829873016448</v>
       </c>
       <c r="I9">
-        <v>23.78082096314216</v>
+        <v>33.64239858976044</v>
       </c>
       <c r="J9">
-        <v>4.814166147796923</v>
+        <v>7.840189502626811</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.677991703910214</v>
+        <v>13.84268458582765</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.67412950887426</v>
+        <v>24.76141858472775</v>
       </c>
       <c r="C10">
-        <v>18.12583237299239</v>
+        <v>10.53716848423547</v>
       </c>
       <c r="D10">
-        <v>9.154447980845763</v>
+        <v>12.96317300074061</v>
       </c>
       <c r="E10">
-        <v>7.237628815130137</v>
+        <v>12.58670753617236</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>57.05600360307182</v>
+        <v>61.24141292362361</v>
       </c>
       <c r="H10">
-        <v>15.93030020195409</v>
+        <v>22.00303536151123</v>
       </c>
       <c r="I10">
-        <v>24.29043139719364</v>
+        <v>33.54995488491696</v>
       </c>
       <c r="J10">
-        <v>4.819814012756719</v>
+        <v>7.839345779737174</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.13116747789611</v>
+        <v>13.86964556922238</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.79322069208924</v>
+        <v>25.0568498374114</v>
       </c>
       <c r="C11">
-        <v>18.81205743570459</v>
+        <v>10.82764625663934</v>
       </c>
       <c r="D11">
-        <v>9.304791622980183</v>
+        <v>12.9659767029638</v>
       </c>
       <c r="E11">
-        <v>7.219447708039015</v>
+        <v>12.56893106761256</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>58.54546310100599</v>
+        <v>61.40244728876924</v>
       </c>
       <c r="H11">
-        <v>16.14818100953422</v>
+        <v>21.99203187898373</v>
       </c>
       <c r="I11">
-        <v>24.55779819477243</v>
+        <v>33.5161095692705</v>
       </c>
       <c r="J11">
-        <v>4.822781277529812</v>
+        <v>7.839051421864593</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.33966527872823</v>
+        <v>13.88435642626909</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.21016163482783</v>
+        <v>25.16855584741199</v>
       </c>
       <c r="C12">
-        <v>19.06779001013366</v>
+        <v>10.93586557069273</v>
       </c>
       <c r="D12">
-        <v>9.36249015160573</v>
+        <v>12.9673836036027</v>
       </c>
       <c r="E12">
-        <v>7.213106422511729</v>
+        <v>12.56239533035292</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>59.11580947356914</v>
+        <v>61.46616099726905</v>
       </c>
       <c r="H12">
-        <v>16.2335426379545</v>
+        <v>21.98859247606472</v>
       </c>
       <c r="I12">
-        <v>24.66451635975646</v>
+        <v>33.50448068476506</v>
       </c>
       <c r="J12">
-        <v>4.823967999679781</v>
+        <v>7.838952792098647</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.41895562822479</v>
+        <v>13.8902764430232</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.12066591179252</v>
+        <v>25.14450707498177</v>
       </c>
       <c r="C13">
-        <v>19.01289381967188</v>
+        <v>10.91263874951557</v>
       </c>
       <c r="D13">
-        <v>9.350029225710864</v>
+        <v>12.96706526011915</v>
       </c>
       <c r="E13">
-        <v>7.214447484296889</v>
+        <v>12.56379421448713</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>58.99268939019505</v>
+        <v>61.45231790899146</v>
       </c>
       <c r="H13">
-        <v>16.215028816367</v>
+        <v>21.98930081965177</v>
       </c>
       <c r="I13">
-        <v>24.64128337767875</v>
+        <v>33.50693224158807</v>
       </c>
       <c r="J13">
-        <v>4.823709509740394</v>
+        <v>7.838973463260455</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.40186392715496</v>
+        <v>13.88898596618191</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.82765822034759</v>
+        <v>25.06604391495308</v>
       </c>
       <c r="C14">
-        <v>18.83317828693071</v>
+        <v>10.83658554677482</v>
       </c>
       <c r="D14">
-        <v>9.30952300276301</v>
+        <v>12.9660855349682</v>
       </c>
       <c r="E14">
-        <v>7.218914944053825</v>
+        <v>12.56838944594364</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>58.59225751997072</v>
+        <v>61.40763440311503</v>
       </c>
       <c r="H14">
-        <v>16.15514558039747</v>
+        <v>21.99173432394611</v>
       </c>
       <c r="I14">
-        <v>24.56646616125022</v>
+        <v>33.51512901203665</v>
       </c>
       <c r="J14">
-        <v>4.822877609006861</v>
+        <v>7.839043050407003</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.34618175208494</v>
+        <v>13.88483648325925</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.64729984147382</v>
+        <v>25.01795803945364</v>
       </c>
       <c r="C15">
-        <v>18.72256574422786</v>
+        <v>10.78976718079192</v>
       </c>
       <c r="D15">
-        <v>9.284812367453304</v>
+        <v>12.96553036098597</v>
       </c>
       <c r="E15">
-        <v>7.221723048715131</v>
+        <v>12.57122964976836</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>58.34781291567709</v>
+        <v>61.38061976685879</v>
       </c>
       <c r="H15">
-        <v>16.11884214185613</v>
+        <v>21.9933197226898</v>
       </c>
       <c r="I15">
-        <v>24.52136210550395</v>
+        <v>33.52030464235003</v>
       </c>
       <c r="J15">
-        <v>4.822376449352546</v>
+        <v>7.839087345550663</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.31211886810965</v>
+        <v>13.88234022232511</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.60002465575892</v>
+        <v>24.74209379909297</v>
       </c>
       <c r="C16">
-        <v>18.0803982411213</v>
+        <v>10.51793998634376</v>
       </c>
       <c r="D16">
-        <v>9.144728638750282</v>
+        <v>12.96303811150715</v>
       </c>
       <c r="E16">
-        <v>7.238891468330368</v>
+        <v>12.58789669227827</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>56.95953404123405</v>
+        <v>61.23127266860627</v>
       </c>
       <c r="H16">
-        <v>15.91645166172931</v>
+        <v>22.00385609922492</v>
       </c>
       <c r="I16">
-        <v>24.27370405726098</v>
+        <v>33.55233255321193</v>
       </c>
       <c r="J16">
-        <v>4.819628585073707</v>
+        <v>7.839366814516627</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.11758852736073</v>
+        <v>13.86873320247335</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.94512691232521</v>
+        <v>24.57267562151522</v>
       </c>
       <c r="C17">
-        <v>17.67889989247428</v>
+        <v>10.34809075511685</v>
       </c>
       <c r="D17">
-        <v>9.060132554828703</v>
+        <v>12.96212467767666</v>
       </c>
       <c r="E17">
-        <v>7.250361143614441</v>
+        <v>12.59847054975362</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>56.11886133503074</v>
+        <v>61.14454484948932</v>
       </c>
       <c r="H17">
-        <v>15.79720116410257</v>
+        <v>22.01161235552426</v>
       </c>
       <c r="I17">
-        <v>24.13112918052965</v>
+        <v>33.57408819006714</v>
       </c>
       <c r="J17">
-        <v>4.818048704038405</v>
+        <v>7.839561152387355</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.998847004666739</v>
+        <v>13.86101062232405</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.56380798283646</v>
+        <v>24.47519770499689</v>
       </c>
       <c r="C18">
-        <v>17.44513692420855</v>
+        <v>10.24928608033976</v>
       </c>
       <c r="D18">
-        <v>9.011961533833574</v>
+        <v>12.96182564523414</v>
       </c>
       <c r="E18">
-        <v>7.25729392781355</v>
+        <v>12.60468078446631</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>55.63930490144767</v>
+        <v>61.09646525177942</v>
       </c>
       <c r="H18">
-        <v>15.73036479332809</v>
+        <v>22.01654759506003</v>
       </c>
       <c r="I18">
-        <v>24.05244690311901</v>
+        <v>33.58737359879218</v>
       </c>
       <c r="J18">
-        <v>4.817177065651745</v>
+        <v>7.839681351939245</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.930770146299563</v>
+        <v>13.85679920586389</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.43389673999418</v>
+        <v>24.44219100908409</v>
       </c>
       <c r="C19">
-        <v>17.36549720762498</v>
+        <v>10.21564400859162</v>
       </c>
       <c r="D19">
-        <v>8.995734673125053</v>
+        <v>12.9617632872758</v>
       </c>
       <c r="E19">
-        <v>7.25969811171822</v>
+        <v>12.60680553232724</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>55.47761345973625</v>
+        <v>61.08049669282566</v>
       </c>
       <c r="H19">
-        <v>15.70803158152604</v>
+        <v>22.01829990599465</v>
       </c>
       <c r="I19">
-        <v>24.0263664214459</v>
+        <v>33.59200419614757</v>
       </c>
       <c r="J19">
-        <v>4.816888145527861</v>
+        <v>7.839723496670691</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.907758517754319</v>
+        <v>13.85541293463792</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.01532046765249</v>
+        <v>24.59071468694624</v>
       </c>
       <c r="C20">
-        <v>17.72193189354005</v>
+        <v>10.36628714770081</v>
       </c>
       <c r="D20">
-        <v>9.069087482322463</v>
+        <v>12.96219849118205</v>
       </c>
       <c r="E20">
-        <v>7.249105238271003</v>
+        <v>12.59733165499572</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>56.20793963878577</v>
+        <v>61.15359060350498</v>
       </c>
       <c r="H20">
-        <v>15.80971299132594</v>
+        <v>22.01073760489397</v>
       </c>
       <c r="I20">
-        <v>24.1459600354479</v>
+        <v>33.57169229760847</v>
       </c>
       <c r="J20">
-        <v>4.818213009048925</v>
+        <v>7.839539593384594</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.0114645043772</v>
+        <v>13.86180887459651</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.91390518149887</v>
+        <v>25.08909582765654</v>
       </c>
       <c r="C21">
-        <v>18.88607552523614</v>
+        <v>10.85897301022887</v>
       </c>
       <c r="D21">
-        <v>9.321399649550601</v>
+        <v>12.96636394060524</v>
       </c>
       <c r="E21">
-        <v>7.217587755756874</v>
+        <v>12.56703440321492</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.70970023581022</v>
+        <v>61.42068503006289</v>
       </c>
       <c r="H21">
-        <v>16.17265591411147</v>
+        <v>21.99099978226723</v>
       </c>
       <c r="I21">
-        <v>24.58829031339184</v>
+        <v>33.51268913419002</v>
       </c>
       <c r="J21">
-        <v>4.823120195442777</v>
+        <v>7.839022262785396</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.36252775816578</v>
+        <v>13.88604582678093</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.11503346214927</v>
+        <v>25.4137938960939</v>
       </c>
       <c r="C22">
-        <v>19.62296058219109</v>
+        <v>11.17058009418917</v>
       </c>
       <c r="D22">
-        <v>9.490784579159525</v>
+        <v>12.97109800688126</v>
       </c>
       <c r="E22">
-        <v>7.20017236745795</v>
+        <v>12.54837465897376</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.38177281181153</v>
+        <v>61.61116687397903</v>
       </c>
       <c r="H22">
-        <v>16.42658522391175</v>
+        <v>21.98234080981632</v>
       </c>
       <c r="I22">
-        <v>24.90945606981667</v>
+        <v>33.48105253048302</v>
       </c>
       <c r="J22">
-        <v>4.826698390826071</v>
+        <v>7.838758970477196</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.59394002124168</v>
+        <v>13.90392095144125</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.47751738915348</v>
+        <v>25.24062451983936</v>
       </c>
       <c r="C23">
-        <v>19.23179720229654</v>
+        <v>11.00524182050156</v>
       </c>
       <c r="D23">
-        <v>9.399961281695212</v>
+        <v>12.96838750204374</v>
       </c>
       <c r="E23">
-        <v>7.209166042726458</v>
+        <v>12.55822940553449</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.48586563051882</v>
+        <v>61.50805431179488</v>
       </c>
       <c r="H23">
-        <v>16.28947141109009</v>
+        <v>21.98657334875956</v>
       </c>
       <c r="I23">
-        <v>24.73498459335343</v>
+        <v>33.49730158871058</v>
       </c>
       <c r="J23">
-        <v>4.824752522277122</v>
+        <v>7.838892657669755</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.47024726212817</v>
+        <v>13.89419533942459</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.98360095866404</v>
+        <v>24.58255945752227</v>
       </c>
       <c r="C24">
-        <v>17.70248628501709</v>
+        <v>10.35806415387842</v>
       </c>
       <c r="D24">
-        <v>9.065037514592193</v>
+        <v>12.96216441575742</v>
       </c>
       <c r="E24">
-        <v>7.24967198011881</v>
+        <v>12.59784614067261</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.16765564863231</v>
+        <v>61.1494954677785</v>
       </c>
       <c r="H24">
-        <v>15.80405104154829</v>
+        <v>22.01113159693234</v>
       </c>
       <c r="I24">
-        <v>24.13924479814091</v>
+        <v>33.57277305830528</v>
       </c>
       <c r="J24">
-        <v>4.818138613007355</v>
+        <v>7.839549313819527</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.00575954314293</v>
+        <v>13.86144727313817</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17789415900591</v>
+        <v>23.87192761984314</v>
       </c>
       <c r="C25">
-        <v>15.94402735171737</v>
+        <v>9.617884280056959</v>
       </c>
       <c r="D25">
-        <v>8.722335239244078</v>
+        <v>12.96410596608878</v>
       </c>
       <c r="E25">
-        <v>7.306111340135726</v>
+        <v>12.6454909462792</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>52.74045156688242</v>
+        <v>60.83173605650778</v>
       </c>
       <c r="H25">
-        <v>15.3469139509157</v>
+        <v>22.05573046941561</v>
       </c>
       <c r="I25">
-        <v>23.62234210487565</v>
+        <v>33.68366840751857</v>
       </c>
       <c r="J25">
-        <v>4.812404658086662</v>
+        <v>7.840579707167654</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.513253582287899</v>
+        <v>13.83493917711785</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_160/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_160/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.35199135438161</v>
+        <v>24.06617020303368</v>
       </c>
       <c r="C2">
-        <v>9.040056169400552</v>
+        <v>14.54956329875379</v>
       </c>
       <c r="D2">
-        <v>12.972983226917</v>
+        <v>8.485425318068613</v>
       </c>
       <c r="E2">
-        <v>12.68481465606163</v>
+        <v>7.357742189517062</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>60.65750051069526</v>
+        <v>50.34385235907444</v>
       </c>
       <c r="H2">
-        <v>22.10401503027334</v>
+        <v>15.0618737413532</v>
       </c>
       <c r="I2">
-        <v>33.79039134410352</v>
+        <v>23.33698889285024</v>
       </c>
       <c r="J2">
-        <v>7.84161638198797</v>
+        <v>4.809206755164246</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.8230676791848</v>
+        <v>9.158445660638556</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.00377652425601</v>
+        <v>22.55465040191472</v>
       </c>
       <c r="C3">
-        <v>8.630193828868856</v>
+        <v>13.53962212383051</v>
       </c>
       <c r="D3">
-        <v>12.98364283608631</v>
+        <v>8.334322358603741</v>
       </c>
       <c r="E3">
-        <v>12.71412108419088</v>
+        <v>7.398631081540019</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.57672846018547</v>
+        <v>48.79874410893847</v>
       </c>
       <c r="H3">
-        <v>22.14630071114788</v>
+        <v>14.89813654897547</v>
       </c>
       <c r="I3">
-        <v>33.87820201712407</v>
+        <v>23.19672131518327</v>
       </c>
       <c r="J3">
-        <v>7.842492910190352</v>
+        <v>4.807603841409343</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.81981706949494</v>
+        <v>8.923383194026412</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.79273218477701</v>
+        <v>21.58756244567966</v>
       </c>
       <c r="C4">
-        <v>8.370456018728326</v>
+        <v>12.88669391244889</v>
       </c>
       <c r="D4">
-        <v>12.99247626283807</v>
+        <v>8.246166994808869</v>
       </c>
       <c r="E4">
-        <v>12.73342881805583</v>
+        <v>7.426532088424871</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>60.54551340334883</v>
+        <v>47.88935777357496</v>
       </c>
       <c r="H4">
-        <v>22.17695490009561</v>
+        <v>14.81122115479794</v>
       </c>
       <c r="I4">
-        <v>33.93970114945091</v>
+        <v>23.13473456243997</v>
       </c>
       <c r="J4">
-        <v>7.843117112492356</v>
+        <v>4.806876939362952</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.82019276451908</v>
+        <v>8.781944259812475</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.70753268043791</v>
+        <v>21.18382770762672</v>
       </c>
       <c r="C5">
-        <v>8.262741364766462</v>
+        <v>12.6122563514585</v>
       </c>
       <c r="D5">
-        <v>12.99665105588811</v>
+        <v>8.211400181429344</v>
       </c>
       <c r="E5">
-        <v>12.74162761169938</v>
+        <v>7.438589077436894</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>60.53740803003073</v>
+        <v>47.52872497807113</v>
       </c>
       <c r="H5">
-        <v>22.1906222073212</v>
+        <v>14.77909289120046</v>
       </c>
       <c r="I5">
-        <v>33.96666113146141</v>
+        <v>23.11524020640961</v>
       </c>
       <c r="J5">
-        <v>7.843393142134711</v>
+        <v>4.80664261604299</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.82094313223591</v>
+        <v>8.725073088214746</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.6934370066258</v>
+        <v>21.11621214122466</v>
       </c>
       <c r="C6">
-        <v>8.244747709947466</v>
+        <v>12.56617791151016</v>
       </c>
       <c r="D6">
-        <v>12.99737899889913</v>
+        <v>8.205696900693585</v>
       </c>
       <c r="E6">
-        <v>12.74300900411304</v>
+        <v>7.440632191509443</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>60.53634059107619</v>
+        <v>47.46944478307194</v>
       </c>
       <c r="H6">
-        <v>22.19296252694115</v>
+        <v>14.7739527822727</v>
       </c>
       <c r="I6">
-        <v>33.97125223991668</v>
+        <v>23.1123425659646</v>
       </c>
       <c r="J6">
-        <v>7.843440286001155</v>
+        <v>4.806607368156977</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.82110382560138</v>
+        <v>8.715677157447962</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.7915797614176</v>
+        <v>21.58215628522655</v>
       </c>
       <c r="C7">
-        <v>8.36901067914356</v>
+        <v>12.88302675958454</v>
       </c>
       <c r="D7">
-        <v>12.99253023755553</v>
+        <v>8.245693439380947</v>
       </c>
       <c r="E7">
-        <v>12.73353805011742</v>
+        <v>7.426691931114828</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>60.54538541783936</v>
+        <v>47.8844537900085</v>
       </c>
       <c r="H7">
-        <v>22.17713446831976</v>
+        <v>14.81077471791555</v>
       </c>
       <c r="I7">
-        <v>33.94005706512272</v>
+        <v>23.13444870978914</v>
       </c>
       <c r="J7">
-        <v>7.843120747368597</v>
+        <v>4.80687353209825</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.82020046491018</v>
+        <v>8.78117411843764</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.23141914524869</v>
+        <v>23.55317475236733</v>
       </c>
       <c r="C8">
-        <v>8.90050358360458</v>
+        <v>14.2080784073345</v>
       </c>
       <c r="D8">
-        <v>12.97618354930515</v>
+        <v>8.432362678324926</v>
       </c>
       <c r="E8">
-        <v>12.69464717430126</v>
+        <v>7.3712507376081</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>60.62583307430958</v>
+        <v>49.80297668445063</v>
       </c>
       <c r="H8">
-        <v>22.11761925150011</v>
+        <v>15.00251006950837</v>
       </c>
       <c r="I8">
-        <v>33.81908974029925</v>
+        <v>23.28343134667896</v>
       </c>
       <c r="J8">
-        <v>7.841900777523149</v>
+        <v>4.808598895582473</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.82145526620912</v>
+        <v>9.076819012567586</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.1110662274246</v>
+        <v>27.1060956704337</v>
       </c>
       <c r="C9">
-        <v>9.872570689475427</v>
+        <v>16.55147492512023</v>
       </c>
       <c r="D9">
-        <v>12.96229506420098</v>
+        <v>8.835351886811047</v>
       </c>
       <c r="E9">
-        <v>12.62878385815318</v>
+        <v>7.285479263433333</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>60.92951281340652</v>
+        <v>53.87509347493042</v>
       </c>
       <c r="H9">
-        <v>22.03829873016448</v>
+        <v>15.49252841923902</v>
       </c>
       <c r="I9">
-        <v>33.64239858976044</v>
+        <v>23.78082096314205</v>
       </c>
       <c r="J9">
-        <v>7.840189502626811</v>
+        <v>4.814166147796857</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.84268458582765</v>
+        <v>9.677991703910164</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.76141858472775</v>
+        <v>29.67412950887428</v>
       </c>
       <c r="C10">
-        <v>10.53716848423547</v>
+        <v>18.12583237299243</v>
       </c>
       <c r="D10">
-        <v>12.96317300074061</v>
+        <v>9.154447980845749</v>
       </c>
       <c r="E10">
-        <v>12.58670753617236</v>
+        <v>7.237628815130249</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>61.24141292362361</v>
+        <v>57.05600360307196</v>
       </c>
       <c r="H10">
-        <v>22.00303536151123</v>
+        <v>15.93030020195413</v>
       </c>
       <c r="I10">
-        <v>33.54995488491696</v>
+        <v>24.2904313971937</v>
       </c>
       <c r="J10">
-        <v>7.839345779737174</v>
+        <v>4.819814012756753</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.86964556922238</v>
+        <v>10.13116747789612</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.0568498374114</v>
+        <v>30.79322069208921</v>
       </c>
       <c r="C11">
-        <v>10.82764625663934</v>
+        <v>18.81205743570444</v>
       </c>
       <c r="D11">
-        <v>12.9659767029638</v>
+        <v>9.304791622980206</v>
       </c>
       <c r="E11">
-        <v>12.56893106761256</v>
+        <v>7.219447708038975</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>61.40244728876924</v>
+        <v>58.54546310100598</v>
       </c>
       <c r="H11">
-        <v>21.99203187898373</v>
+        <v>16.14818100953428</v>
       </c>
       <c r="I11">
-        <v>33.5161095692705</v>
+        <v>24.5577981947725</v>
       </c>
       <c r="J11">
-        <v>7.839051421864593</v>
+        <v>4.822781277529744</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.88435642626909</v>
+        <v>10.33966527872825</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.16855584741199</v>
+        <v>31.21016163482791</v>
       </c>
       <c r="C12">
-        <v>10.93586557069273</v>
+        <v>19.06779001013378</v>
       </c>
       <c r="D12">
-        <v>12.9673836036027</v>
+        <v>9.362490151605691</v>
       </c>
       <c r="E12">
-        <v>12.56239533035292</v>
+        <v>7.213106422511735</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>61.46616099726905</v>
+        <v>59.11580947356914</v>
       </c>
       <c r="H12">
-        <v>21.98859247606472</v>
+        <v>16.23354263795444</v>
       </c>
       <c r="I12">
-        <v>33.50448068476506</v>
+        <v>24.66451635975633</v>
       </c>
       <c r="J12">
-        <v>7.838952792098647</v>
+        <v>4.823967999679814</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.8902764430232</v>
+        <v>10.41895562822477</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.14450707498177</v>
+        <v>31.1206659117926</v>
       </c>
       <c r="C13">
-        <v>10.91263874951557</v>
+        <v>19.01289381967192</v>
       </c>
       <c r="D13">
-        <v>12.96706526011915</v>
+        <v>9.350029225710879</v>
       </c>
       <c r="E13">
-        <v>12.56379421448713</v>
+        <v>7.21444748429695</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>61.45231790899146</v>
+        <v>58.99268939019511</v>
       </c>
       <c r="H13">
-        <v>21.98930081965177</v>
+        <v>16.21502881636694</v>
       </c>
       <c r="I13">
-        <v>33.50693224158807</v>
+        <v>24.64128337767866</v>
       </c>
       <c r="J13">
-        <v>7.838973463260455</v>
+        <v>4.823709509740324</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.88898596618191</v>
+        <v>10.40186392715496</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.06604391495308</v>
+        <v>30.82765822034766</v>
       </c>
       <c r="C14">
-        <v>10.83658554677482</v>
+        <v>18.83317828693071</v>
       </c>
       <c r="D14">
-        <v>12.9660855349682</v>
+        <v>9.309523002763056</v>
       </c>
       <c r="E14">
-        <v>12.56838944594364</v>
+        <v>7.218914944053568</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>61.40763440311503</v>
+        <v>58.59225751997082</v>
       </c>
       <c r="H14">
-        <v>21.99173432394611</v>
+        <v>16.15514558039748</v>
       </c>
       <c r="I14">
-        <v>33.51512901203665</v>
+        <v>24.56646616125017</v>
       </c>
       <c r="J14">
-        <v>7.839043050407003</v>
+        <v>4.822877609006628</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.88483648325925</v>
+        <v>10.3461817520849</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.01795803945364</v>
+        <v>30.64729984147379</v>
       </c>
       <c r="C15">
-        <v>10.78976718079192</v>
+        <v>18.72256574422789</v>
       </c>
       <c r="D15">
-        <v>12.96553036098597</v>
+        <v>9.284812367453354</v>
       </c>
       <c r="E15">
-        <v>12.57122964976836</v>
+        <v>7.221723048715238</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>61.38061976685879</v>
+        <v>58.34781291567717</v>
       </c>
       <c r="H15">
-        <v>21.9933197226898</v>
+        <v>16.11884214185621</v>
       </c>
       <c r="I15">
-        <v>33.52030464235003</v>
+        <v>24.52136210550413</v>
       </c>
       <c r="J15">
-        <v>7.839087345550663</v>
+        <v>4.822376449352611</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.88234022232511</v>
+        <v>10.31211886810963</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.74209379909297</v>
+        <v>29.60002465575893</v>
       </c>
       <c r="C16">
-        <v>10.51793998634376</v>
+        <v>18.08039824112126</v>
       </c>
       <c r="D16">
-        <v>12.96303811150715</v>
+        <v>9.144728638750346</v>
       </c>
       <c r="E16">
-        <v>12.58789669227827</v>
+        <v>7.238891468330379</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>61.23127266860627</v>
+        <v>56.95953404123431</v>
       </c>
       <c r="H16">
-        <v>22.00385609922492</v>
+        <v>15.9164516617294</v>
       </c>
       <c r="I16">
-        <v>33.55233255321193</v>
+        <v>24.27370405726113</v>
       </c>
       <c r="J16">
-        <v>7.839366814516627</v>
+        <v>4.819628585073773</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.86873320247335</v>
+        <v>10.11758852736073</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.57267562151522</v>
+        <v>28.94512691232524</v>
       </c>
       <c r="C17">
-        <v>10.34809075511685</v>
+        <v>17.6788998924742</v>
       </c>
       <c r="D17">
-        <v>12.96212467767666</v>
+        <v>9.060132554828735</v>
       </c>
       <c r="E17">
-        <v>12.59847054975362</v>
+        <v>7.25036114361439</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>61.14454484948932</v>
+        <v>56.11886133503076</v>
       </c>
       <c r="H17">
-        <v>22.01161235552426</v>
+        <v>15.79720116410268</v>
       </c>
       <c r="I17">
-        <v>33.57408819006714</v>
+        <v>24.13112918052967</v>
       </c>
       <c r="J17">
-        <v>7.839561152387355</v>
+        <v>4.818048704038371</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.86101062232405</v>
+        <v>9.998847004666681</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.47519770499689</v>
+        <v>28.5638079828364</v>
       </c>
       <c r="C18">
-        <v>10.24928608033976</v>
+        <v>17.44513692420865</v>
       </c>
       <c r="D18">
-        <v>12.96182564523414</v>
+        <v>9.011961533833491</v>
       </c>
       <c r="E18">
-        <v>12.60468078446631</v>
+        <v>7.257293927813486</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>61.09646525177942</v>
+        <v>55.63930490144764</v>
       </c>
       <c r="H18">
-        <v>22.01654759506003</v>
+        <v>15.73036479332812</v>
       </c>
       <c r="I18">
-        <v>33.58737359879218</v>
+        <v>24.05244690311913</v>
       </c>
       <c r="J18">
-        <v>7.839681351939245</v>
+        <v>4.817177065651746</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.85679920586389</v>
+        <v>9.930770146299519</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.44219100908409</v>
+        <v>28.43389673999412</v>
       </c>
       <c r="C19">
-        <v>10.21564400859162</v>
+        <v>17.36549720762507</v>
       </c>
       <c r="D19">
-        <v>12.9617632872758</v>
+        <v>8.995734673125098</v>
       </c>
       <c r="E19">
-        <v>12.60680553232724</v>
+        <v>7.259698111718283</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>61.08049669282566</v>
+        <v>55.4776134597364</v>
       </c>
       <c r="H19">
-        <v>22.01829990599465</v>
+        <v>15.70803158152611</v>
       </c>
       <c r="I19">
-        <v>33.59200419614757</v>
+        <v>24.02636642144607</v>
       </c>
       <c r="J19">
-        <v>7.839723496670691</v>
+        <v>4.816888145527924</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.85541293463792</v>
+        <v>9.907758517754308</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.59071468694624</v>
+        <v>29.01532046765245</v>
       </c>
       <c r="C20">
-        <v>10.36628714770081</v>
+        <v>17.72193189354001</v>
       </c>
       <c r="D20">
-        <v>12.96219849118205</v>
+        <v>9.069087482322455</v>
       </c>
       <c r="E20">
-        <v>12.59733165499572</v>
+        <v>7.249105238271023</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>61.15359060350498</v>
+        <v>56.20793963878589</v>
       </c>
       <c r="H20">
-        <v>22.01073760489397</v>
+        <v>15.80971299132601</v>
       </c>
       <c r="I20">
-        <v>33.57169229760847</v>
+        <v>24.14596003544804</v>
       </c>
       <c r="J20">
-        <v>7.839539593384594</v>
+        <v>4.81821300904899</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.86180887459651</v>
+        <v>10.01146450437721</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.08909582765654</v>
+        <v>30.91390518149888</v>
       </c>
       <c r="C21">
-        <v>10.85897301022887</v>
+        <v>18.8860755252361</v>
       </c>
       <c r="D21">
-        <v>12.96636394060524</v>
+        <v>9.321399649550509</v>
       </c>
       <c r="E21">
-        <v>12.56703440321492</v>
+        <v>7.217587755756771</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>61.42068503006289</v>
+        <v>58.70970023581032</v>
       </c>
       <c r="H21">
-        <v>21.99099978226723</v>
+        <v>16.1726559141115</v>
       </c>
       <c r="I21">
-        <v>33.51268913419002</v>
+        <v>24.58829031339191</v>
       </c>
       <c r="J21">
-        <v>7.839022262785396</v>
+        <v>4.82312019544281</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.88604582678093</v>
+        <v>10.36252775816575</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.4137938960939</v>
+        <v>32.11503346214928</v>
       </c>
       <c r="C22">
-        <v>11.17058009418917</v>
+        <v>19.62296058219104</v>
       </c>
       <c r="D22">
-        <v>12.97109800688126</v>
+        <v>9.490784579159547</v>
       </c>
       <c r="E22">
-        <v>12.54837465897376</v>
+        <v>7.200172367457911</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>61.61116687397903</v>
+        <v>60.38177281181176</v>
       </c>
       <c r="H22">
-        <v>21.98234080981632</v>
+        <v>16.4265852239118</v>
       </c>
       <c r="I22">
-        <v>33.48105253048302</v>
+        <v>24.90945606981682</v>
       </c>
       <c r="J22">
-        <v>7.838758970477196</v>
+        <v>4.826698390826002</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.90392095144125</v>
+        <v>10.59394002124162</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.24062451983936</v>
+        <v>31.47751738915357</v>
       </c>
       <c r="C23">
-        <v>11.00524182050156</v>
+        <v>19.23179720229634</v>
       </c>
       <c r="D23">
-        <v>12.96838750204374</v>
+        <v>9.399961281695189</v>
       </c>
       <c r="E23">
-        <v>12.55822940553449</v>
+        <v>7.209166042726317</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>61.50805431179488</v>
+        <v>59.48586563051885</v>
       </c>
       <c r="H23">
-        <v>21.98657334875956</v>
+        <v>16.28947141109007</v>
       </c>
       <c r="I23">
-        <v>33.49730158871058</v>
+        <v>24.7349845933534</v>
       </c>
       <c r="J23">
-        <v>7.838892657669755</v>
+        <v>4.824752522277086</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.89419533942459</v>
+        <v>10.47024726212817</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.58255945752227</v>
+        <v>28.98360095866405</v>
       </c>
       <c r="C24">
-        <v>10.35806415387842</v>
+        <v>17.70248628501703</v>
       </c>
       <c r="D24">
-        <v>12.96216441575742</v>
+        <v>9.065037514592152</v>
       </c>
       <c r="E24">
-        <v>12.59784614067261</v>
+        <v>7.249671980118891</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>61.1494954677785</v>
+        <v>56.16765564863235</v>
       </c>
       <c r="H24">
-        <v>22.01113159693234</v>
+        <v>15.80405104154826</v>
       </c>
       <c r="I24">
-        <v>33.57277305830528</v>
+        <v>24.13924479814088</v>
       </c>
       <c r="J24">
-        <v>7.839549313819527</v>
+        <v>4.818138613007457</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.86144727313817</v>
+        <v>10.00575954314296</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.87192761984314</v>
+        <v>26.1778941590059</v>
       </c>
       <c r="C25">
-        <v>9.617884280056959</v>
+        <v>15.94402735171749</v>
       </c>
       <c r="D25">
-        <v>12.96410596608878</v>
+        <v>8.722335239244071</v>
       </c>
       <c r="E25">
-        <v>12.6454909462792</v>
+        <v>7.306111340135854</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>60.83173605650778</v>
+        <v>52.74045156688231</v>
       </c>
       <c r="H25">
-        <v>22.05573046941561</v>
+        <v>15.34691395091564</v>
       </c>
       <c r="I25">
-        <v>33.68366840751857</v>
+        <v>23.62234210487558</v>
       </c>
       <c r="J25">
-        <v>7.840579707167654</v>
+        <v>4.812404658086796</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.83493917711785</v>
+        <v>9.513253582287916</v>
       </c>
       <c r="M25">
         <v>0</v>
